--- a/MEDIA/_ 1102         _301_會計科目餘額明細.xlsx
+++ b/MEDIA/_ 1102         _301_會計科目餘額明細.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>森邦(股)會計科目餘額明細(_ 1102         _301_2020-10-13~2020-10-13)</t>
+          <t>森邦(股)會計科目餘額明細(_ 1102         _301_2020-12-01~2020-12-01)</t>
         </is>
       </c>
     </row>
@@ -419,7 +419,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>35394338</v>
+        <v>16215711</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -427,7 +427,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201201</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -437,38 +437,38 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>樹林日新                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>暫收-新竹中山 工程款(ipad)             </t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>27840</v>
+        <v>11500</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>35422178</v>
+        <v>16227211</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>112187</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1000738</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201201</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -478,7 +478,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>高雄苓雅                                    </t>
+          <t>中壢中原	                                   </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -487,29 +487,29 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6000</v>
+        <v>59558</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>35428178</v>
+        <v>16286769</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>109986</t>
+          <t>112126</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1000708</t>
+          <t>1000917</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201201</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -519,38 +519,38 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>堤諾長庚                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>匯飛行家-支付11-0134柯伊亭費用申請         </t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>30147</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-7150</v>
       </c>
       <c r="G6" t="n">
-        <v>35458325</v>
+        <v>16279619</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>112120</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>4000024</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201201</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -560,38 +560,38 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>蘇澳中山                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>匯網路中文-支付11-0132姚柏安費用申請        </t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>20928</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>-1600</v>
       </c>
       <c r="G7" t="n">
-        <v>35479253</v>
+        <v>16278019</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>112107</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1000406</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201201</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -601,38 +601,38 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>八德中正	                                   </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>暫收-新竹東南 工程款(POS機)             </t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>29238</v>
+        <v>64100</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>35508491</v>
+        <v>16342119</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>112170</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1000830</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201201</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>三重仁義                                    </t>
+          <t>南崁奉化                                    </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -651,29 +651,29 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>28033</v>
+        <v>11232</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>35536524</v>
+        <v>16353351</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>112126</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1000405</t>
+          <t>1000822</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201201</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>北市濟南	                                   </t>
+          <t>豐原南陽	                                   </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -692,29 +692,29 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29406</v>
+        <v>44672</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>35565930</v>
+        <v>16398023</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>112126</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1000816</t>
+          <t>1000856</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201201</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>鹽行仁愛	                                   </t>
+          <t>桃園大業	                                   </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -733,29 +733,29 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>20500</v>
+        <v>26638</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>35586430</v>
+        <v>16424661</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>112126</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1000833</t>
+          <t>1000873</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201201</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>崙背建國                                    </t>
+          <t>桃園廈門                                    </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -774,29 +774,29 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>40034</v>
+        <v>21190</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>35626464</v>
+        <v>16445851</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>112126</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1000790</t>
+          <t>1000910</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201201</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中壢中原	                                   </t>
+          <t>北市文德                                    </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -815,29 +815,29 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>92002</v>
+        <v>20922</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>35718466</v>
+        <v>16466773</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>112126</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1000917</t>
+          <t>1000355</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201201</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -847,7 +847,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>新店耕莘                                    </t>
+          <t>梧棲中興	                                   </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -856,29 +856,29 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>30000</v>
+        <v>26399</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>35748466</v>
+        <v>16493172</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>112126</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1000603</t>
+          <t>1000898</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201201</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>南崁奉化                                    </t>
+          <t>竹北文興                                    </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -897,29 +897,29 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>11208</v>
+        <v>10007</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>35759674</v>
+        <v>16503179</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>112126</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1000822</t>
+          <t>1000903</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201201</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -929,7 +929,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>斗六慶生	                                   </t>
+          <t>三重仁義                                    </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -938,29 +938,29 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>12613</v>
+        <v>29482</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>35772287</v>
+        <v>16532661</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>112126</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1000912</t>
+          <t>1000405</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201201</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -970,7 +970,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>永和永利	                                   </t>
+          <t>虎尾復興                                    </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -979,29 +979,29 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3195</v>
+        <v>40700</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>35775482</v>
+        <v>16573361</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>112126</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1000954</t>
+          <t>1000594</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201201</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中壢九和                                    </t>
+          <t>內湖江南                                    </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1020,29 +1020,29 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>29985</v>
+        <v>58106</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>35805467</v>
+        <v>16631467</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>112126</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1000742</t>
+          <t>1000146</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201201</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中壢環東中山                                  </t>
+          <t>頭份光華	                                   </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1061,29 +1061,29 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6005</v>
+        <v>25705</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>35811472</v>
+        <v>16657172</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>112126</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1000817</t>
+          <t>1000940</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201201</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>東勢中山                                    </t>
+          <t>樹林站前	                                   </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1102,29 +1102,29 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>12117</v>
+        <v>773000</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>35823589</v>
+        <v>17430172</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>112126</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1000290</t>
+          <t>1000953</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201201</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>東勢中山                                    </t>
+          <t>中壢後寮	                                   </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1143,29 +1143,29 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>12860</v>
+        <v>39712</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>35836449</v>
+        <v>17469884</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>112126</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1000290</t>
+          <t>1000958</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201201</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>沙鹿北勢東	                                  </t>
+          <t>金門金城                                    </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1184,29 +1184,29 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>15583</v>
+        <v>48709</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>35852032</v>
+        <v>17518593</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>112126</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1000835</t>
+          <t>1000191</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201201</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>民雄文化                                    </t>
+          <t>豐原向陽                                    </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1225,29 +1225,29 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>35000</v>
+        <v>16243</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>35887032</v>
+        <v>17534836</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>112126</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1000854</t>
+          <t>1000256</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201201</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>花蓮中山                                    </t>
+          <t>員林建國                                    </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1266,29 +1266,29 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>18234</v>
+        <v>10315</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>35905266</v>
+        <v>17545151</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>112126</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1000882</t>
+          <t>1000648</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201201</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>新竹鐵道                                    </t>
+          <t>平鎮廣德                                    </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1307,29 +1307,29 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>11720</v>
+        <v>13621</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>35916986</v>
+        <v>17558772</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>112126</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1000525</t>
+          <t>1000764</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201201</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>金門金城                                    </t>
+          <t>員林北門	                                   </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1348,29 +1348,29 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>53380</v>
+        <v>17685</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>35970366</v>
+        <v>17576457</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>112126</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1000191</t>
+          <t>1000897</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201201</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>虎尾復興                                    </t>
+          <t>新竹鐵道                                    </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1389,29 +1389,29 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>36206</v>
+        <v>35745</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>36006572</v>
+        <v>17612202</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>112126</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1000594</t>
+          <t>1000525</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201201</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>永和竹林                                    </t>
+          <t>桃園大興                                    </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1430,29 +1430,29 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>20086</v>
+        <v>10750</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>36026658</v>
+        <v>17622952</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>112126</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>1000573</t>
+          <t>1000941</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201201</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>員林北門	                                   </t>
+          <t>永康永華                                    </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1471,29 +1471,29 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>25109</v>
+        <v>28212</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>36051767</v>
+        <v>17651164</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>112126</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>1000897</t>
+          <t>1000751</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201201</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1503,359 +1503,31 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>桃園中正長春	                                 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>銀行自動扣繳-沖11/30#111724-109/11月普聯</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>25853</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>-177400</v>
       </c>
       <c r="G30" t="n">
-        <v>36077620</v>
+        <v>17473764</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>112129</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>1000925</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>20201013</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>暫收-周和泰 代尋2萬                   </t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>20000</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>36097620</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>109982</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
           <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>20201013</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>10906台北展NO.125-蘇炳文-大里內新 3萬    </t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>30000</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>36127620</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>109982</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>20201013</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>暫收-大甲日南店 張雅惠 工程款$261480       </t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>261480</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>36389100</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>109982</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>20201013</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>10906台北展NO.117-蕭惠文-北市光復 工程款   </t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>249740</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>36638840</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>109995</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>20201013</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>存現                            </t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>1499315</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>38138155</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>109982</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>20201013</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>員林建國                                    </t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>15124</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>38153279</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>109986</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>1000648</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>20201013</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>楊梅青山                                    </t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E37" t="n">
-        <v>19148</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>38172427</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>109986</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>1000887</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>20201013</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>堤諾林口店                                   </t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>13656</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>38186083</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>109921</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>4000023</t>
         </is>
       </c>
     </row>
